--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="126">
   <si>
     <t>Client ID</t>
   </si>
@@ -385,6 +385,24 @@
   </si>
   <si>
     <t>93bac5c2-3f18-4580-9527-6a8d00ae6a80</t>
+  </si>
+  <si>
+    <t>Hilal - Hyderabad</t>
+  </si>
+  <si>
+    <t>a29ed913-3870-4025-b900-a9fb9141d8a0</t>
+  </si>
+  <si>
+    <t>1ba1b6ca-549e-4b66-bb01-b01cf944c965</t>
+  </si>
+  <si>
+    <t>f075c631-8f3b-4042-aff0-dd06a32dcdf7</t>
+  </si>
+  <si>
+    <t>Driver_Status_SATDUK</t>
+  </si>
+  <si>
+    <t>ef79c700-f771-4db6-bd79-4539f4237e7f</t>
   </si>
 </sst>
 </file>
@@ -721,13 +739,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,7 +1475,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D35" si="1">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D37" si="1">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1752,6 +1770,60 @@
         <v>15</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1791,6 +1863,8 @@
     <hyperlink ref="D33" r:id="rId32" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D34" r:id="rId33" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D35" r:id="rId34" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D36" r:id="rId35" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D37" r:id="rId36" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="129">
   <si>
     <t>Client ID</t>
   </si>
@@ -403,6 +403,15 @@
   </si>
   <si>
     <t>ef79c700-f771-4db6-bd79-4539f4237e7f</t>
+  </si>
+  <si>
+    <t>Driver_Status_PHTTHL</t>
+  </si>
+  <si>
+    <t>1488c619-d901-4a61-b422-b0fbffe71263</t>
+  </si>
+  <si>
+    <t>8179566d-58c0-4427-98cb-1ec0c6d2c58e</t>
   </si>
 </sst>
 </file>
@@ -739,13 +748,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1475,7 +1484,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D37" si="1">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D38" si="1">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1824,6 +1833,33 @@
         <v>15</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1865,6 +1901,7 @@
     <hyperlink ref="D35" r:id="rId34" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D36" r:id="rId35" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D37" r:id="rId36" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D38" r:id="rId37" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="135">
   <si>
     <t>Client ID</t>
   </si>
@@ -412,6 +412,24 @@
   </si>
   <si>
     <t>8179566d-58c0-4427-98cb-1ec0c6d2c58e</t>
+  </si>
+  <si>
+    <t>be956fab-9c97-49c0-a41c-faa7f2cab9fa</t>
+  </si>
+  <si>
+    <t>Treet</t>
+  </si>
+  <si>
+    <t>0840e4dd-8420-427e-a751-341e66c80b41</t>
+  </si>
+  <si>
+    <t>DOT Dashboard</t>
+  </si>
+  <si>
+    <t>007a5e64-3977-47d0-809c-aeb329d3893d</t>
+  </si>
+  <si>
+    <t>768c5549-c806-45f1-a061-70db6b339515</t>
   </si>
 </sst>
 </file>
@@ -748,13 +766,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1484,7 +1502,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D38" si="1">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D40" si="1">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1860,6 +1878,60 @@
         <v>15</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1902,6 +1974,8 @@
     <hyperlink ref="D36" r:id="rId35" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D37" r:id="rId36" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D38" r:id="rId37" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D39" r:id="rId38" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D40" r:id="rId39" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="141">
   <si>
     <t>Client ID</t>
   </si>
@@ -430,6 +430,24 @@
   </si>
   <si>
     <t>768c5549-c806-45f1-a061-70db6b339515</t>
+  </si>
+  <si>
+    <t>41b3609e-cf42-4a32-aece-3e8638795fc2</t>
+  </si>
+  <si>
+    <t>Haleeb</t>
+  </si>
+  <si>
+    <t>894c0b29-191d-49e0-b988-67bedbd0123f</t>
+  </si>
+  <si>
+    <t>Unilever_Scorecard</t>
+  </si>
+  <si>
+    <t>a3ef91ee-9771-4cc1-8292-49e92b6be20f</t>
+  </si>
+  <si>
+    <t>00703a6d-0c5e-4d5d-bc18-38f397f2b4ab</t>
   </si>
 </sst>
 </file>
@@ -766,13 +784,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,7 +1520,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D40" si="1">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D42" si="1">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1932,6 +1950,60 @@
         <v>15</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1976,6 +2048,8 @@
     <hyperlink ref="D38" r:id="rId37" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D39" r:id="rId38" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D40" r:id="rId39" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D41" r:id="rId40" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D42" r:id="rId41" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Dashboard_Details" sheetId="1" r:id="rId1"/>
     <sheet name="Roles" sheetId="2" r:id="rId2"/>
+    <sheet name="Analytics_menu" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="158">
   <si>
     <t>Client ID</t>
   </si>
@@ -448,6 +449,57 @@
   </si>
   <si>
     <t>00703a6d-0c5e-4d5d-bc18-38f397f2b4ab</t>
+  </si>
+  <si>
+    <t>NSTLPK-HOD PQF</t>
+  </si>
+  <si>
+    <t>d785aaf4-2856-4498-a250-fe5816e22e4e</t>
+  </si>
+  <si>
+    <t>c43ccb53-1ee1-49bc-adf9-3ee48b469619</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PARTNER_CD</t>
+  </si>
+  <si>
+    <t>MENU LABEL</t>
+  </si>
+  <si>
+    <t>analytics_menu_id</t>
+  </si>
+  <si>
+    <t>report_id</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>HOD PQF</t>
+  </si>
+  <si>
+    <t>f1436e21-ed77-4018-92c3-8eb0e0d12267</t>
+  </si>
+  <si>
+    <t>ALL_Migration_uat</t>
+  </si>
+  <si>
+    <t>8c8455dc-efbb-4f7e-b403-3a8a209a432d</t>
+  </si>
+  <si>
+    <t>carrier_dashboard_migration_uat</t>
+  </si>
+  <si>
+    <t>Carrier_CD</t>
+  </si>
+  <si>
+    <t>43a634c3-6762-4df1-9e06-5a7c0c2e2174</t>
+  </si>
+  <si>
+    <t>29b1acbd-83b9-4883-835f-92d96d68f1a3</t>
   </si>
 </sst>
 </file>
@@ -784,13 +836,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,7 +857,7 @@
     <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,8 +885,11 @@
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -863,8 +918,15 @@
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>22</v>
+      </c>
+      <c r="O2" t="str">
+        <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,8 +955,15 @@
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>22</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -923,8 +992,15 @@
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>22</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -953,8 +1029,15 @@
       <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,8 +1066,15 @@
       <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>22</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1103,15 @@
       <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>22</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1043,8 +1140,15 @@
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>22</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1073,8 +1177,15 @@
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>22</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,8 +1214,15 @@
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>22</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1133,8 +1251,15 @@
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>22</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1163,8 +1288,15 @@
       <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1193,8 +1325,15 @@
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>22</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,8 +1362,15 @@
       <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>22</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
@@ -1250,8 +1396,15 @@
       <c r="I15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>22</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1280,8 +1433,15 @@
       <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>22</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1307,8 +1467,15 @@
       <c r="I17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>22</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>111</v>
       </c>
@@ -1334,8 +1501,15 @@
       <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>22</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1364,8 +1538,15 @@
       <c r="I19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>22</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -1394,8 +1575,15 @@
       <c r="I20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>22</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1424,8 +1612,15 @@
       <c r="I21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>22</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1454,8 +1649,15 @@
       <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>22</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
@@ -1481,8 +1683,15 @@
       <c r="I23" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
@@ -1508,8 +1717,15 @@
       <c r="I24" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -1520,7 +1736,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D42" si="1">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D45" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1538,8 +1754,15 @@
       <c r="I25" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>22</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1550,7 +1773,7 @@
         <v>86</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1568,8 +1791,15 @@
       <c r="I26" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>89</v>
       </c>
@@ -1577,7 +1807,7 @@
         <v>90</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1595,8 +1825,15 @@
       <c r="I27" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>22</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>92</v>
       </c>
@@ -1604,7 +1841,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1622,8 +1859,15 @@
       <c r="I28" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>22</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -1634,7 +1878,7 @@
         <v>96</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1652,8 +1896,15 @@
       <c r="I29" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>22</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>98</v>
       </c>
@@ -1661,7 +1912,7 @@
         <v>99</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -1679,8 +1930,15 @@
       <c r="I30" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>22</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
@@ -1688,7 +1946,7 @@
         <v>101</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -1706,8 +1964,15 @@
       <c r="I31" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>22</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>104</v>
       </c>
@@ -1715,7 +1980,7 @@
         <v>105</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1733,8 +1998,15 @@
       <c r="I32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>22</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -1745,7 +2017,7 @@
         <v>109</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1763,8 +2035,15 @@
       <c r="I33" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>22</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>114</v>
       </c>
@@ -1772,7 +2051,7 @@
         <v>115</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -1790,8 +2069,15 @@
       <c r="I34" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>22</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>118</v>
       </c>
@@ -1799,7 +2085,7 @@
         <v>117</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -1817,8 +2103,15 @@
       <c r="I35" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>22</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>120</v>
       </c>
@@ -1826,7 +2119,7 @@
         <v>121</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -1844,8 +2137,15 @@
       <c r="I36" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>22</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>124</v>
       </c>
@@ -1853,7 +2153,7 @@
         <v>123</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -1871,8 +2171,15 @@
       <c r="I37" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>22</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>126</v>
       </c>
@@ -1880,7 +2187,7 @@
         <v>127</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -1898,8 +2205,15 @@
       <c r="I38" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>22</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>130</v>
       </c>
@@ -1907,7 +2221,7 @@
         <v>129</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -1925,8 +2239,15 @@
       <c r="I39" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>22</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>132</v>
       </c>
@@ -1934,7 +2255,7 @@
         <v>133</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -1952,8 +2273,15 @@
       <c r="I40" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>22</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>136</v>
       </c>
@@ -1961,7 +2289,7 @@
         <v>135</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -1979,8 +2307,15 @@
       <c r="I41" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>22</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>138</v>
       </c>
@@ -1988,7 +2323,7 @@
         <v>139</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2004,6 +2339,107 @@
         <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42">
+        <v>22</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43">
+        <v>45</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f1436e21-ed77-4018-92c3-8eb0e0d12267</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=43a634c3-6762-4df1-9e06-5a7c0c2e2174</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2050,6 +2486,9 @@
     <hyperlink ref="D40" r:id="rId39" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D41" r:id="rId40" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D42" r:id="rId41" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D43" r:id="rId42" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D44" r:id="rId43" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D45" r:id="rId44" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2087,4 +2526,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>58</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-07-10 13:33:17', '22', 'PBI', 'SELF', '5');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="164">
   <si>
     <t>Client ID</t>
   </si>
@@ -500,6 +500,24 @@
   </si>
   <si>
     <t>29b1acbd-83b9-4883-835f-92d96d68f1a3</t>
+  </si>
+  <si>
+    <t>da1d36b4-005f-4f84-b96d-f154d8abff81</t>
+  </si>
+  <si>
+    <t>Interloop</t>
+  </si>
+  <si>
+    <t>42524971-44a7-471b-aeae-8682e9743cba</t>
+  </si>
+  <si>
+    <t>a85149ba-96da-499d-bbde-ecce94ca6c81</t>
+  </si>
+  <si>
+    <t>NSTLPK-HOD SKP</t>
+  </si>
+  <si>
+    <t>ead2022b-4b96-41c6-a238-016c234bfbc8</t>
   </si>
 </sst>
 </file>
@@ -836,13 +854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,7 +941,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -960,7 +978,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -997,7 +1015,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1034,7 +1052,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1071,7 +1089,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1108,7 +1126,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1145,7 +1163,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1182,7 +1200,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1219,7 +1237,7 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1256,7 +1274,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1293,7 +1311,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1330,7 +1348,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1367,7 +1385,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1401,7 +1419,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1438,7 +1456,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1472,7 +1490,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1506,7 +1524,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1543,7 +1561,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1580,7 +1598,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1617,7 +1635,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1654,7 +1672,7 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1688,7 +1706,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1722,7 +1740,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1736,7 +1754,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D45" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D47" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1759,7 +1777,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1796,7 +1814,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -1830,7 +1848,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -1864,7 +1882,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -1901,7 +1919,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -1935,7 +1953,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -1969,7 +1987,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -2003,7 +2021,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -2040,7 +2058,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -2074,7 +2092,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -2108,7 +2126,7 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -2142,7 +2160,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -2176,7 +2194,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -2210,7 +2228,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -2244,7 +2262,7 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -2278,7 +2296,7 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -2312,7 +2330,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2346,7 +2364,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -2380,7 +2398,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-07-10 13:33:17', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -2440,6 +2458,60 @@
         <v>15</v>
       </c>
       <c r="I45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=da1d36b4-005f-4f84-b96d-f154d8abff81</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a85149ba-96da-499d-bbde-ecce94ca6c81</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2489,6 +2561,8 @@
     <hyperlink ref="D43" r:id="rId42" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D44" r:id="rId43" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D45" r:id="rId44" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D46" r:id="rId45" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D47" r:id="rId46" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2572,7 +2646,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-07-10 13:33:17', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-08-27 19:30:08', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard_Details" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="170">
   <si>
     <t>Client ID</t>
   </si>
@@ -518,6 +518,24 @@
   </si>
   <si>
     <t>ead2022b-4b96-41c6-a238-016c234bfbc8</t>
+  </si>
+  <si>
+    <t>kolson</t>
+  </si>
+  <si>
+    <t>112882f8-8376-4739-9e3e-ac0ed9c5fbb2</t>
+  </si>
+  <si>
+    <t>90174148-762c-412f-b373-3e9c715f5803</t>
+  </si>
+  <si>
+    <t>Pakages</t>
+  </si>
+  <si>
+    <t>72008df8-4bee-4166-a16e-4e24576fc63a</t>
+  </si>
+  <si>
+    <t>cb22b013-fbc3-4942-bfb7-1133de3b006e</t>
   </si>
 </sst>
 </file>
@@ -854,28 +872,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,7 +925,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -941,10 +959,10 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -978,10 +996,10 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1015,10 +1033,10 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,10 +1070,10 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,10 +1107,10 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,10 +1144,10 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1163,10 +1181,10 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1200,10 +1218,10 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1237,10 +1255,10 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1274,10 +1292,10 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1311,10 +1329,10 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1348,10 +1366,10 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1385,10 +1403,10 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
@@ -1419,10 +1437,10 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1456,10 +1474,10 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1490,10 +1508,10 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>111</v>
       </c>
@@ -1524,10 +1542,10 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1561,10 +1579,10 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -1598,10 +1616,10 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1635,10 +1653,10 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1672,10 +1690,10 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
@@ -1706,10 +1724,10 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
@@ -1740,10 +1758,10 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -1754,7 +1772,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D47" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D49" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1777,10 +1795,10 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1814,10 +1832,10 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>89</v>
       </c>
@@ -1848,10 +1866,10 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>92</v>
       </c>
@@ -1882,10 +1900,10 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -1919,10 +1937,10 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>98</v>
       </c>
@@ -1953,10 +1971,10 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
@@ -1987,10 +2005,10 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>104</v>
       </c>
@@ -2021,10 +2039,10 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2058,10 +2076,10 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>114</v>
       </c>
@@ -2092,10 +2110,10 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>118</v>
       </c>
@@ -2126,10 +2144,10 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>120</v>
       </c>
@@ -2160,10 +2178,10 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>124</v>
       </c>
@@ -2194,10 +2212,10 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>126</v>
       </c>
@@ -2228,10 +2246,10 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>130</v>
       </c>
@@ -2262,10 +2280,10 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>132</v>
       </c>
@@ -2296,10 +2314,10 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>136</v>
       </c>
@@ -2330,10 +2348,10 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>138</v>
       </c>
@@ -2364,10 +2382,10 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>141</v>
       </c>
@@ -2398,10 +2416,10 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-08-27 19:30:08', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -2431,7 +2449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>155</v>
       </c>
@@ -2461,7 +2479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>159</v>
       </c>
@@ -2488,7 +2506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>162</v>
       </c>
@@ -2512,6 +2530,60 @@
         <v>15</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=112882f8-8376-4739-9e3e-ac0ed9c5fbb2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=72008df8-4bee-4166-a16e-4e24576fc63a</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2563,8 +2635,11 @@
     <hyperlink ref="D45" r:id="rId44" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D46" r:id="rId45" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D47" r:id="rId46" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D48" r:id="rId47" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D49" r:id="rId48" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId49"/>
 </worksheet>
 </file>
 
@@ -2576,12 +2651,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2589,7 +2664,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2610,14 +2685,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -2631,7 +2706,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -2646,7 +2721,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-08-27 19:30:08', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-09-03 15:49:46', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="176">
   <si>
     <t>Client ID</t>
   </si>
@@ -536,6 +536,24 @@
   </si>
   <si>
     <t>cb22b013-fbc3-4942-bfb7-1133de3b006e</t>
+  </si>
+  <si>
+    <t>Efert</t>
+  </si>
+  <si>
+    <t>4e5757c7-152d-435a-a189-63f6848adfdb</t>
+  </si>
+  <si>
+    <t>0efa1d84-995d-471a-a814-d30076bc2340</t>
+  </si>
+  <si>
+    <t>ELG</t>
+  </si>
+  <si>
+    <t>2acb949e-c50e-417f-b79e-fd8338ee899e</t>
+  </si>
+  <si>
+    <t>8ce21aaf-d1e9-4ba4-a558-6c0c28b8f5f5</t>
   </si>
 </sst>
 </file>
@@ -872,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +977,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -996,7 +1014,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1033,7 +1051,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1070,7 +1088,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1107,7 +1125,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1144,7 +1162,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1181,7 +1199,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1218,7 +1236,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1255,7 +1273,7 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1292,7 +1310,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1329,7 +1347,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1366,7 +1384,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1403,7 +1421,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1437,7 +1455,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1474,7 +1492,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1508,7 +1526,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1542,7 +1560,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1579,7 +1597,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1616,7 +1634,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1653,7 +1671,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1690,7 +1708,7 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1724,7 +1742,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1758,7 +1776,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1772,7 +1790,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D49" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D51" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1795,7 +1813,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1832,7 +1850,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1866,7 +1884,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1900,7 +1918,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1937,7 +1955,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1971,7 +1989,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2005,7 +2023,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2039,7 +2057,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2076,7 +2094,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2110,7 +2128,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2144,7 +2162,7 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2178,7 +2196,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2212,7 +2230,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2246,7 +2264,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2280,7 +2298,7 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2314,7 +2332,7 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2348,7 +2366,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2382,7 +2400,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2416,7 +2434,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-09-03 15:49:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2584,6 +2602,60 @@
         <v>15</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=4e5757c7-152d-435a-a189-63f6848adfdb</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=2acb949e-c50e-417f-b79e-fd8338ee899e</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2637,9 +2709,11 @@
     <hyperlink ref="D47" r:id="rId46" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D48" r:id="rId47" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D49" r:id="rId48" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D50" r:id="rId49" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D51" r:id="rId50" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
 </worksheet>
 </file>
 
@@ -2721,7 +2795,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-09-03 15:49:46', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-09-30 10:41:53', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="185">
   <si>
     <t>Client ID</t>
   </si>
@@ -554,6 +554,33 @@
   </si>
   <si>
     <t>8ce21aaf-d1e9-4ba4-a558-6c0c28b8f5f5</t>
+  </si>
+  <si>
+    <t>30f8b497-5cb0-436d-aafa-1cca701875fb</t>
+  </si>
+  <si>
+    <t>EBM</t>
+  </si>
+  <si>
+    <t>e973d699-bfbc-492f-a8bd-efe367f49ca4</t>
+  </si>
+  <si>
+    <t>Maersk</t>
+  </si>
+  <si>
+    <t>a1481ff4-9ccf-4f94-b779-998427c970b9</t>
+  </si>
+  <si>
+    <t>ce091d06-0d78-45a5-a13c-133f29f0f8a8</t>
+  </si>
+  <si>
+    <t>3815fa30-a0ff-45d1-8dbd-03dd221eedaf</t>
+  </si>
+  <si>
+    <t>EBM - Sales</t>
+  </si>
+  <si>
+    <t>c33e7feb-ecaa-43da-8c4a-6441b61c29cb</t>
   </si>
 </sst>
 </file>
@@ -890,13 +917,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +1004,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1014,7 +1041,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1051,7 +1078,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1088,7 +1115,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1125,7 +1152,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1162,7 +1189,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1199,7 +1226,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1236,7 +1263,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1273,7 +1300,7 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1310,7 +1337,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1347,7 +1374,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1384,7 +1411,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1421,7 +1448,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1455,7 +1482,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1492,7 +1519,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1526,7 +1553,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1560,7 +1587,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1597,7 +1624,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1634,7 +1661,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1671,7 +1698,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1708,7 +1735,7 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1742,7 +1769,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1776,7 +1803,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1790,7 +1817,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D51" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D54" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1813,7 +1840,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1850,7 +1877,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1884,7 +1911,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1918,7 +1945,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1955,7 +1982,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1989,7 +2016,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2023,7 +2050,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2057,7 +2084,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2094,7 +2121,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2128,7 +2155,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2162,7 +2189,7 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2196,7 +2223,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2230,7 +2257,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2264,7 +2291,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2298,7 +2325,7 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2332,7 +2359,7 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2366,7 +2393,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2400,7 +2427,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2434,7 +2461,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-09-30 10:41:53', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2656,6 +2683,87 @@
         <v>15</v>
       </c>
       <c r="I51" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=30f8b497-5cb0-436d-aafa-1cca701875fb</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a1481ff4-9ccf-4f94-b779-998427c970b9</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=3815fa30-a0ff-45d1-8dbd-03dd221eedaf</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2711,9 +2819,12 @@
     <hyperlink ref="D49" r:id="rId48" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D50" r:id="rId49" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D51" r:id="rId50" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D52" r:id="rId51" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D53" r:id="rId52" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D54" r:id="rId53" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -2795,7 +2906,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-09-30 10:41:53', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-10-10 14:41:58', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="188">
   <si>
     <t>Client ID</t>
   </si>
@@ -581,6 +581,15 @@
   </si>
   <si>
     <t>c33e7feb-ecaa-43da-8c4a-6441b61c29cb</t>
+  </si>
+  <si>
+    <t>Pakages_New_Dashboard</t>
+  </si>
+  <si>
+    <t>9ec9637a-079d-4764-acfc-d99e91e5a7e7</t>
+  </si>
+  <si>
+    <t>75b9d165-f8f3-4fd9-8a7a-72a2361c1804</t>
   </si>
 </sst>
 </file>
@@ -917,13 +926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1013,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1041,7 +1050,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1078,7 +1087,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1115,7 +1124,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1152,7 +1161,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1189,7 +1198,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1226,7 +1235,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1263,7 +1272,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1300,7 +1309,7 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1337,7 +1346,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1374,7 +1383,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1411,7 +1420,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1448,7 +1457,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1482,7 +1491,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1519,7 +1528,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1553,7 +1562,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1587,7 +1596,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1624,7 +1633,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1661,7 +1670,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1698,7 +1707,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1735,7 +1744,7 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1769,7 +1778,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1803,7 +1812,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1817,7 +1826,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D54" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D55" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1840,7 +1849,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1877,7 +1886,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1911,7 +1920,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1945,7 +1954,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1982,7 +1991,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2016,7 +2025,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2050,7 +2059,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2084,7 +2093,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2121,7 +2130,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2155,7 +2164,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2189,7 +2198,7 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2223,7 +2232,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2257,7 +2266,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2291,7 +2300,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2325,7 +2334,7 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2359,7 +2368,7 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2393,7 +2402,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2427,7 +2436,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2461,7 +2470,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-10-10 14:41:58', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2764,6 +2773,33 @@
         <v>15</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=9ec9637a-079d-4764-acfc-d99e91e5a7e7</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2822,9 +2858,10 @@
     <hyperlink ref="D52" r:id="rId51" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D53" r:id="rId52" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D54" r:id="rId53" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D55" r:id="rId54" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -2906,7 +2943,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-10-10 14:41:58', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-10-29 13:36:46', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="194">
   <si>
     <t>Client ID</t>
   </si>
@@ -590,6 +590,24 @@
   </si>
   <si>
     <t>75b9d165-f8f3-4fd9-8a7a-72a2361c1804</t>
+  </si>
+  <si>
+    <t>Shan</t>
+  </si>
+  <si>
+    <t>f6ec0dc0-bd74-463b-b4a0-70b9674ab614</t>
+  </si>
+  <si>
+    <t>Shan - Sales</t>
+  </si>
+  <si>
+    <t>c38d1aa0-fc7d-41d4-a4c1-b01f28bd4d9b</t>
+  </si>
+  <si>
+    <t>3e93c555-819a-4815-bc73-3cb1a62e5976</t>
+  </si>
+  <si>
+    <t>4575e6d4-95af-4637-9f19-7bb090d7ca74</t>
   </si>
 </sst>
 </file>
@@ -926,13 +944,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1031,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1050,7 +1068,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1087,7 +1105,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1124,7 +1142,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1161,7 +1179,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1198,7 +1216,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1235,7 +1253,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1272,7 +1290,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1309,7 +1327,7 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1346,7 +1364,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1383,7 +1401,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1420,7 +1438,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1457,7 +1475,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1491,7 +1509,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1528,7 +1546,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1562,7 +1580,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1596,7 +1614,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1633,7 +1651,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1670,7 +1688,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1707,7 +1725,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1744,7 +1762,7 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1778,7 +1796,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1812,7 +1830,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1826,7 +1844,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D55" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D57" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1849,7 +1867,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1886,7 +1904,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1920,7 +1938,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1954,7 +1972,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1991,7 +2009,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2025,7 +2043,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2059,7 +2077,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2093,7 +2111,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2130,7 +2148,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2164,7 +2182,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2198,7 +2216,7 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2232,7 +2250,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2266,7 +2284,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2300,7 +2318,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2334,7 +2352,7 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2368,7 +2386,7 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2402,7 +2420,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2436,7 +2454,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2470,7 +2488,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-10-29 13:36:46', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2800,6 +2818,60 @@
         <v>15</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f6ec0dc0-bd74-463b-b4a0-70b9674ab614</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c38d1aa0-fc7d-41d4-a4c1-b01f28bd4d9b</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2859,9 +2931,11 @@
     <hyperlink ref="D53" r:id="rId52" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D54" r:id="rId53" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D55" r:id="rId54" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D56" r:id="rId55" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D57" r:id="rId56" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -2943,7 +3017,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-10-29 13:36:46', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-11-13 07:45:49', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="200">
   <si>
     <t>Client ID</t>
   </si>
@@ -608,6 +608,24 @@
   </si>
   <si>
     <t>4575e6d4-95af-4637-9f19-7bb090d7ca74</t>
+  </si>
+  <si>
+    <t>906e17ab-76ef-4f10-85da-78b9e5c9599f</t>
+  </si>
+  <si>
+    <t>Nestle Detention</t>
+  </si>
+  <si>
+    <t>08daa3ff-00b9-488a-907b-b2225f600660</t>
+  </si>
+  <si>
+    <t>EBM Inspection</t>
+  </si>
+  <si>
+    <t>7f8d56f3-2c35-428d-8941-98395a1f151c</t>
+  </si>
+  <si>
+    <t>3df9df86-cab5-493c-9520-b03f6f4adddd</t>
   </si>
 </sst>
 </file>
@@ -944,13 +962,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1049,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1068,7 +1086,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1105,7 +1123,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1142,7 +1160,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1179,7 +1197,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1216,7 +1234,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1253,7 +1271,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1290,7 +1308,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1327,7 +1345,7 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1364,7 +1382,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1401,7 +1419,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1438,7 +1456,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1475,7 +1493,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1509,7 +1527,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1546,7 +1564,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1580,7 +1598,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1614,7 +1632,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1651,7 +1669,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1688,7 +1706,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1725,7 +1743,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1762,7 +1780,7 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1796,7 +1814,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1830,7 +1848,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1844,7 +1862,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D57" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D59" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1867,7 +1885,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1904,7 +1922,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1938,7 +1956,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1972,7 +1990,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2009,7 +2027,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2043,7 +2061,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2077,7 +2095,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2111,7 +2129,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2148,7 +2166,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2182,7 +2200,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2216,7 +2234,7 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2250,7 +2268,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2284,7 +2302,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2318,7 +2336,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2352,7 +2370,7 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2386,7 +2404,7 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2420,7 +2438,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2454,7 +2472,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2488,7 +2506,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-11-13 07:45:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2872,6 +2890,60 @@
         <v>15</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=906e17ab-76ef-4f10-85da-78b9e5c9599f</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=7f8d56f3-2c35-428d-8941-98395a1f151c</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2933,9 +3005,11 @@
     <hyperlink ref="D55" r:id="rId54" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D56" r:id="rId55" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D57" r:id="rId56" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D58" r:id="rId57" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D59" r:id="rId58" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
 </worksheet>
 </file>
 
@@ -3017,7 +3091,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-11-13 07:45:49', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-12-09 15:03:38', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="212">
   <si>
     <t>Client ID</t>
   </si>
@@ -626,6 +626,42 @@
   </si>
   <si>
     <t>3df9df86-cab5-493c-9520-b03f6f4adddd</t>
+  </si>
+  <si>
+    <t>NestleVehicleInspection</t>
+  </si>
+  <si>
+    <t>4101ab95-9483-4f43-87d5-9650143361b6</t>
+  </si>
+  <si>
+    <t>9dda777b-abc0-4a11-b79b-4090fcaed218</t>
+  </si>
+  <si>
+    <t>PKSMDL - Sales</t>
+  </si>
+  <si>
+    <t>f770b7fe-a2b0-497b-b5a5-49c44fd5f240</t>
+  </si>
+  <si>
+    <t>c5c5791a-7517-4eb2-97d7-07853e1a0dc0</t>
+  </si>
+  <si>
+    <t>PKSMDL - Mondelez</t>
+  </si>
+  <si>
+    <t>bd0b951b-49a8-4ffa-a284-4d559a767278</t>
+  </si>
+  <si>
+    <t>3741cbc1-59f4-43a1-94da-5657e4a906cc</t>
+  </si>
+  <si>
+    <t>EBM - KW</t>
+  </si>
+  <si>
+    <t>c1c42f1e-3c97-4c67-a0ad-229b03e8341e</t>
+  </si>
+  <si>
+    <t>19203bff-6821-4b07-b7f6-678940abef5f</t>
   </si>
 </sst>
 </file>
@@ -962,13 +998,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I59" sqref="I59"/>
+      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1085,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1086,7 +1122,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1123,7 +1159,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1160,7 +1196,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1197,7 +1233,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1234,7 +1270,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1271,7 +1307,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1308,7 +1344,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1345,7 +1381,7 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1382,7 +1418,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1419,7 +1455,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1456,7 +1492,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1493,7 +1529,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1527,7 +1563,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1564,7 +1600,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1598,7 +1634,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1632,7 +1668,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1669,7 +1705,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1706,7 +1742,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1743,7 +1779,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1780,7 +1816,7 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1814,7 +1850,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1848,7 +1884,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1862,7 +1898,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D59" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D63" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1885,7 +1921,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1922,7 +1958,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1956,7 +1992,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1990,7 +2026,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2027,7 +2063,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2061,7 +2097,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2095,7 +2131,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2129,7 +2165,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2166,7 +2202,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2200,7 +2236,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2234,7 +2270,7 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2268,7 +2304,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2302,7 +2338,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2336,7 +2372,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2370,7 +2406,7 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2404,7 +2440,7 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2438,7 +2474,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2472,7 +2508,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2506,7 +2542,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2019-12-09 15:03:38', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2944,6 +2980,114 @@
         <v>15</v>
       </c>
       <c r="I59" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=4101ab95-9483-4f43-87d5-9650143361b6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f770b7fe-a2b0-497b-b5a5-49c44fd5f240</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=bd0b951b-49a8-4ffa-a284-4d559a767278</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c1c42f1e-3c97-4c67-a0ad-229b03e8341e</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3007,9 +3151,13 @@
     <hyperlink ref="D57" r:id="rId56" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D58" r:id="rId57" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D59" r:id="rId58" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D60" r:id="rId59" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D61" r:id="rId60" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D62" r:id="rId61" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D63" r:id="rId62" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId63"/>
 </worksheet>
 </file>
 
@@ -3091,7 +3239,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2019-12-09 15:03:38', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-01-28 12:46:31', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard_Details" sheetId="1" r:id="rId1"/>
@@ -1001,25 +1001,25 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
+      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,10 +1085,10 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,10 +1122,10 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,10 +1159,10 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1196,10 +1196,10 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1233,10 +1233,10 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1270,10 +1270,10 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1307,10 +1307,10 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1344,10 +1344,10 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1381,10 +1381,10 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1418,10 +1418,10 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1455,10 +1455,10 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1492,10 +1492,10 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1529,10 +1529,10 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
@@ -1563,10 +1563,10 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1600,10 +1600,10 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1634,10 +1634,10 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>111</v>
       </c>
@@ -1668,10 +1668,10 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1705,10 +1705,10 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -1742,10 +1742,10 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1779,10 +1779,10 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1816,10 +1816,10 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
@@ -1850,10 +1850,10 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
@@ -1884,10 +1884,10 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -1921,10 +1921,10 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1958,10 +1958,10 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>89</v>
       </c>
@@ -1992,10 +1992,10 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>92</v>
       </c>
@@ -2026,10 +2026,10 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -2063,10 +2063,10 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>98</v>
       </c>
@@ -2097,10 +2097,10 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
@@ -2131,10 +2131,10 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>104</v>
       </c>
@@ -2165,10 +2165,10 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2202,10 +2202,10 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>114</v>
       </c>
@@ -2236,10 +2236,10 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>118</v>
       </c>
@@ -2270,10 +2270,10 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>120</v>
       </c>
@@ -2304,10 +2304,10 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>124</v>
       </c>
@@ -2338,10 +2338,10 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>126</v>
       </c>
@@ -2372,10 +2372,10 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>130</v>
       </c>
@@ -2406,10 +2406,10 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>132</v>
       </c>
@@ -2440,10 +2440,10 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>136</v>
       </c>
@@ -2474,10 +2474,10 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>138</v>
       </c>
@@ -2508,10 +2508,10 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>141</v>
       </c>
@@ -2542,10 +2542,10 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2020-01-28 12:46:31', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>155</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>159</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>162</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>164</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>167</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>170</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>173</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>177</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>179</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>183</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>185</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>188</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>190</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>195</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>197</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>200</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>203</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>206</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>209</v>
       </c>
@@ -3169,12 +3169,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -3203,14 +3203,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-01-28 12:46:31', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-02-14 14:15:51', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\openportengineering-powerbi-1b800921655f\"/>
@@ -998,13 +998,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomRight" activeCell="F55" activeCellId="1" sqref="G56 F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1086,7 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1122,7 +1123,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1159,7 +1160,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1196,7 +1197,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1233,7 +1234,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1270,7 +1271,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1307,7 +1308,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1344,7 +1345,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1381,7 +1382,7 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1418,7 +1419,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1455,7 +1456,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1492,7 +1493,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1529,7 +1530,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1563,7 +1564,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1600,7 +1601,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1634,7 +1635,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1668,7 +1669,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1705,7 +1706,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1742,7 +1743,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1779,7 +1780,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1816,7 +1817,7 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1850,7 +1851,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1884,7 +1885,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1921,7 +1922,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1958,7 +1959,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -1992,7 +1993,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -2026,7 +2027,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -2063,7 +2064,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -2097,7 +2098,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -2131,7 +2132,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -2165,7 +2166,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -2202,7 +2203,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -2236,7 +2237,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -2270,7 +2271,7 @@
       </c>
       <c r="O35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -2304,7 +2305,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -2338,7 +2339,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -2372,7 +2373,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -2406,7 +2407,7 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -2440,7 +2441,7 @@
       </c>
       <c r="O40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -2474,7 +2475,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2508,7 +2509,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -2542,7 +2543,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2020-02-14 14:15:51', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -3163,6 +3164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3197,6 +3199,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3239,7 +3242,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-02-14 14:15:51', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-03-12 11:34:19', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard_Details" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>dexter.olano@opnexplorer.com</t>
   </si>
   <si>
-    <t>eF3Sy$100</t>
-  </si>
-  <si>
     <t>Active_Inactive Drivers</t>
   </si>
   <si>
@@ -662,6 +659,9 @@
   </si>
   <si>
     <t>19203bff-6821-4b07-b7f6-678940abef5f</t>
+  </si>
+  <si>
+    <t>InsIght$c$2020</t>
   </si>
 </sst>
 </file>
@@ -1002,25 +1002,25 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F55" activeCellId="1" sqref="G56 F55"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1049,10 +1049,10 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1079,25 +1079,25 @@
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J2">
         <v>22</v>
       </c>
       <c r="O2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1110,31 +1110,31 @@
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J3">
         <v>22</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1147,31 +1147,31 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J4">
         <v>22</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1184,31 +1184,31 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J5">
         <v>22</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1221,31 +1221,31 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J6">
         <v>22</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1258,31 +1258,31 @@
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J7">
         <v>22</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1295,31 +1295,31 @@
         <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J8">
         <v>22</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1332,31 +1332,31 @@
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J9">
         <v>22</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1369,31 +1369,31 @@
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J10">
         <v>22</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1406,31 +1406,31 @@
         <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11">
+        <v>22</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11">
-        <v>22</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1443,31 +1443,31 @@
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J12">
         <v>22</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1480,31 +1480,31 @@
         <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J13">
         <v>22</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1517,28 +1517,28 @@
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14">
+        <v>22</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14">
-        <v>22</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1551,31 +1551,31 @@
         <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J15">
         <v>22</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1588,28 +1588,28 @@
         <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16">
+        <v>22</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16">
-        <v>22</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1622,28 +1622,28 @@
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J17">
         <v>22</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1656,31 +1656,31 @@
         <v>13</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J18">
         <v>22</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1693,31 +1693,31 @@
         <v>13</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19">
+        <v>22</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19">
-        <v>22</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1730,31 +1730,31 @@
         <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J20">
+        <v>22</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20">
-        <v>22</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1767,31 +1767,31 @@
         <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J21">
         <v>22</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1804,28 +1804,28 @@
         <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22">
+        <v>22</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22">
-        <v>22</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1838,28 +1838,28 @@
         <v>13</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J23">
         <v>22</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1872,31 +1872,31 @@
         <v>13</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J24">
         <v>22</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="str">
         <f t="shared" ref="D25:D63" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
@@ -1909,1187 +1909,1187 @@
         <v>13</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J25">
         <v>22</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26">
-        <v>22</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27">
+        <v>22</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27">
-        <v>22</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28">
+        <v>22</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28">
-        <v>22</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29">
+        <v>22</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29">
-        <v>22</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J30">
+        <v>22</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30">
-        <v>22</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J31">
+        <v>22</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31">
-        <v>22</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="H32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J32">
         <v>22</v>
       </c>
       <c r="O32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="H33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J33">
         <v>22</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J34">
+        <v>22</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34">
-        <v>22</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35">
+        <v>22</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35">
-        <v>22</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36">
+        <v>22</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36">
-        <v>22</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J37">
+        <v>22</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37">
-        <v>22</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J38">
+        <v>22</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38">
-        <v>22</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J39">
+        <v>22</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39">
-        <v>22</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J40">
+        <v>22</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40">
-        <v>22</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J41">
+        <v>22</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41">
-        <v>22</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J42">
+        <v>22</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42">
-        <v>22</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J43">
         <v>45</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2020-03-12 11:34:19', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'eF3Sy$100');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f1436e21-ed77-4018-92c3-8eb0e0d12267</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=f1436e21-ed77-4018-92c3-8eb0e0d12267</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=43a634c3-6762-4df1-9e06-5a7c0c2e2174</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=43a634c3-6762-4df1-9e06-5a7c0c2e2174</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=da1d36b4-005f-4f84-b96d-f154d8abff81</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=da1d36b4-005f-4f84-b96d-f154d8abff81</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a85149ba-96da-499d-bbde-ecce94ca6c81</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=a85149ba-96da-499d-bbde-ecce94ca6c81</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=112882f8-8376-4739-9e3e-ac0ed9c5fbb2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=112882f8-8376-4739-9e3e-ac0ed9c5fbb2</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=72008df8-4bee-4166-a16e-4e24576fc63a</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=72008df8-4bee-4166-a16e-4e24576fc63a</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=4e5757c7-152d-435a-a189-63f6848adfdb</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=4e5757c7-152d-435a-a189-63f6848adfdb</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=2acb949e-c50e-417f-b79e-fd8338ee899e</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=2acb949e-c50e-417f-b79e-fd8338ee899e</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=30f8b497-5cb0-436d-aafa-1cca701875fb</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=30f8b497-5cb0-436d-aafa-1cca701875fb</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a1481ff4-9ccf-4f94-b779-998427c970b9</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=a1481ff4-9ccf-4f94-b779-998427c970b9</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=3815fa30-a0ff-45d1-8dbd-03dd221eedaf</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=3815fa30-a0ff-45d1-8dbd-03dd221eedaf</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=9ec9637a-079d-4764-acfc-d99e91e5a7e7</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=9ec9637a-079d-4764-acfc-d99e91e5a7e7</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f6ec0dc0-bd74-463b-b4a0-70b9674ab614</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=f6ec0dc0-bd74-463b-b4a0-70b9674ab614</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c38d1aa0-fc7d-41d4-a4c1-b01f28bd4d9b</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=c38d1aa0-fc7d-41d4-a4c1-b01f28bd4d9b</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=906e17ab-76ef-4f10-85da-78b9e5c9599f</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=906e17ab-76ef-4f10-85da-78b9e5c9599f</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=7f8d56f3-2c35-428d-8941-98395a1f151c</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D59" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=7f8d56f3-2c35-428d-8941-98395a1f151c</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=4101ab95-9483-4f43-87d5-9650143361b6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=4101ab95-9483-4f43-87d5-9650143361b6</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f770b7fe-a2b0-497b-b5a5-49c44fd5f240</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=f770b7fe-a2b0-497b-b5a5-49c44fd5f240</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=bd0b951b-49a8-4ffa-a284-4d559a767278</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=bd0b951b-49a8-4ffa-a284-4d559a767278</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c1c42f1e-3c97-4c67-a0ad-229b03e8341e</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://app.powerbi.com/reportEmbed?reportId=c1c42f1e-3c97-4c67-a0ad-229b03e8341e</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="H63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3171,25 +3171,25 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3206,33 +3206,33 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
         <v>145</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>146</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>150</v>
       </c>
       <c r="C2">
         <v>58</v>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-03-12 11:34:19', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-04-06 12:50:49', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_details.xlsx
+++ b/dashboard_details.xlsx
@@ -12,10 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Roles" sheetId="2" r:id="rId2"/>
-    <sheet name="Analytics_menu" sheetId="3" r:id="rId3"/>
+    <sheet name="Dashboard_Details_Old" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard_Details_Updated" sheetId="4" r:id="rId2"/>
+    <sheet name="Roles" sheetId="2" r:id="rId3"/>
+    <sheet name="Analytics_menu" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dashboard_Details_Updated!$A$1:$K$39</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="298">
   <si>
     <t>Client ID</t>
   </si>
@@ -662,6 +666,264 @@
   </si>
   <si>
     <t>InsIght$c$2020</t>
+  </si>
+  <si>
+    <t>cc88fa4c-4032-4004-8dc3-203a3a497534</t>
+  </si>
+  <si>
+    <t>KBF 2019 Data</t>
+  </si>
+  <si>
+    <t>e071d53c-6146-4523-be3f-5165d4d16617</t>
+  </si>
+  <si>
+    <t>3f7af74f-742c-4578-aa62-71db34efc33f</t>
+  </si>
+  <si>
+    <t>9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e</t>
+  </si>
+  <si>
+    <t>2d62e3d8-aeb4-44c8-bcd1-483d837eddb4</t>
+  </si>
+  <si>
+    <t>4628a059-5e29-4327-b8bf-663c5455dc78</t>
+  </si>
+  <si>
+    <t>bi-admin@pk-openport.com</t>
+  </si>
+  <si>
+    <t>In$ight$C$eF3Sy$100</t>
+  </si>
+  <si>
+    <t>35562145-982f-4f3e-bfb0-842cc9e92d42</t>
+  </si>
+  <si>
+    <t>6ff22ff0-c40f-43f7-86ef-e9204755663f</t>
+  </si>
+  <si>
+    <t>9c7c237a-ed08-422f-a311-c3ba50c2c08d</t>
+  </si>
+  <si>
+    <t>cff1a0ba-f1cb-486e-970c-3f79ecb7fcd1</t>
+  </si>
+  <si>
+    <t>22c8af2a-56c1-4812-8448-5b7ceb5bb640</t>
+  </si>
+  <si>
+    <t>40e72cf1-ac8a-44c4-a258-3ac3f40ec281</t>
+  </si>
+  <si>
+    <t>36d35df2-e98e-4855-9f84-a58bb4922d26</t>
+  </si>
+  <si>
+    <t>38c7c338-c50a-4928-85e2-0d7750f2ec90</t>
+  </si>
+  <si>
+    <t>49884104-d880-49a2-b475-8beb05f2452e</t>
+  </si>
+  <si>
+    <t>83926f6d-6e69-463f-8dfc-d20ebc27affc</t>
+  </si>
+  <si>
+    <t>bf0eafda-0b8c-4bf0-b718-a7d695700608</t>
+  </si>
+  <si>
+    <t>04c428c4-7823-44b7-8133-79f5afe29922</t>
+  </si>
+  <si>
+    <t>791062c8-b29f-48cb-917c-78d17a0f9a30</t>
+  </si>
+  <si>
+    <t>4776a242-68ca-46a9-bd33-11b55adea567</t>
+  </si>
+  <si>
+    <t>39b4a7c6-a475-4707-b321-01f08b1acce8</t>
+  </si>
+  <si>
+    <t>1da75508-30ed-4997-8b24-0324c96cb828</t>
+  </si>
+  <si>
+    <t>24cd6cdf-9326-440a-ae8f-543204209cc3</t>
+  </si>
+  <si>
+    <t>ceb23e9b-9370-49f2-9a51-7d7d3f992419</t>
+  </si>
+  <si>
+    <t>f0344a5b-0d21-42b8-a1ab-12d088763004</t>
+  </si>
+  <si>
+    <t>5e6a6876-a3bc-4612-9602-79a440380c9a</t>
+  </si>
+  <si>
+    <t>130949ea-efd3-4fff-8d37-27082a6659d5</t>
+  </si>
+  <si>
+    <t>306ff51b-d45e-4e01-b071-63a048047961</t>
+  </si>
+  <si>
+    <t>a110b808-ccee-40b7-b4f6-e63d2532aae2</t>
+  </si>
+  <si>
+    <t>60a9605b-1b3c-4fac-8fa9-03316c9707e8</t>
+  </si>
+  <si>
+    <t>55fc0f50-1e17-4c47-8dc2-3efb7de9a138</t>
+  </si>
+  <si>
+    <t>6724603f-ca17-4d5c-9f65-ecca7e4bdcae</t>
+  </si>
+  <si>
+    <t>68e99e16-4a2d-4831-bc59-486f48ccf3ea</t>
+  </si>
+  <si>
+    <t>0da02f93-ca2b-4128-8ff2-095ca71d38d8</t>
+  </si>
+  <si>
+    <t>2210458b-3c93-4171-98ef-18be287f1a5f</t>
+  </si>
+  <si>
+    <t>f2fb6702-73de-41d5-b703-58e51f804eab</t>
+  </si>
+  <si>
+    <t>c3f07414-8028-4e30-b600-eceb11e83ce8</t>
+  </si>
+  <si>
+    <t>5e07950f-fbe7-4945-8e28-e7c99f8b5251</t>
+  </si>
+  <si>
+    <t>08a0f537-e741-4221-8e46-fccce4fde275</t>
+  </si>
+  <si>
+    <t>63805db1-1b90-4802-8aa2-621222862f46</t>
+  </si>
+  <si>
+    <t>9620f4f4-e149-4648-9a43-e5f50b61a397</t>
+  </si>
+  <si>
+    <t>43a5e5c4-6c3f-4b60-8961-8702ac5bf5ab</t>
+  </si>
+  <si>
+    <t>95ff80b1-40a4-48c9-a13b-a9e095d9ad60</t>
+  </si>
+  <si>
+    <t>ed0cba09-6732-4aea-b623-32eb12b22646</t>
+  </si>
+  <si>
+    <t>892abaaf-897e-45e3-898f-5999c8a8beb6</t>
+  </si>
+  <si>
+    <t>d00bb588-3fc0-4d4f-b9e2-bcbffcee6c4f</t>
+  </si>
+  <si>
+    <t>41848496-c43f-4a4b-8fd7-f2a57c00d169</t>
+  </si>
+  <si>
+    <t>cccaf6fb-21b9-496b-bef7-558539dafd00</t>
+  </si>
+  <si>
+    <t>c5e4f69e-4b6f-44b6-8897-bf29f24a6b52</t>
+  </si>
+  <si>
+    <t>3e3077aa-3340-488f-b389-c3e47005d234</t>
+  </si>
+  <si>
+    <t>230561c0-f40c-4f8e-8e71-8e598528917d</t>
+  </si>
+  <si>
+    <t>98e3b36d-0cff-4a68-8b25-46f6ea5f32dd</t>
+  </si>
+  <si>
+    <t>bddbffc1-aebd-4df0-8d28-6dbf3e5cfd0d</t>
+  </si>
+  <si>
+    <t>81c23f6e-6ce3-4490-a776-0b631df97854</t>
+  </si>
+  <si>
+    <t>4a153c8c-61ea-47a6-83db-96e351c46d8b</t>
+  </si>
+  <si>
+    <t>a54b1232-3458-4c20-b2a8-8cb19644edf2</t>
+  </si>
+  <si>
+    <t>fd6b7241-f14b-41be-9337-348dd54e720c</t>
+  </si>
+  <si>
+    <t>cad14737-e5ad-4f31-9084-bfc7898ee4d4</t>
+  </si>
+  <si>
+    <t>d4e5572b-359a-412f-bfb5-6b162c203b6e</t>
+  </si>
+  <si>
+    <t>721a61fe-1bdf-4dd8-ab15-971d079004c4</t>
+  </si>
+  <si>
+    <t>7b55093b-d9da-4b13-b5ea-afe2470d8b79</t>
+  </si>
+  <si>
+    <t>9c74f4d2-9b38-4e4d-a954-5f6ff49a2c7f</t>
+  </si>
+  <si>
+    <t>8c9c4f25-5bf4-4ac2-8532-4e0fd29863cd</t>
+  </si>
+  <si>
+    <t>5eeb81b0-89e4-45f3-a63b-7aa5220d4fa7</t>
+  </si>
+  <si>
+    <t>ecd22e42-95a4-4525-bd32-4079d9cb7aa7</t>
+  </si>
+  <si>
+    <t>ff818cfd-660d-4948-a6ad-228e0d61afbf</t>
+  </si>
+  <si>
+    <t>c269e001-42d0-41f0-9fd5-ba2795c1858f</t>
+  </si>
+  <si>
+    <t>d16f77e4-4687-45e6-a883-8fbb6104f872</t>
+  </si>
+  <si>
+    <t>70567e91-841a-4982-8f21-12037e5f9e41</t>
+  </si>
+  <si>
+    <t>5b499c33-a6b7-497b-879f-ecb6eb098998</t>
+  </si>
+  <si>
+    <t>24cf079f-d954-4cad-a20b-e33e2ef09186</t>
+  </si>
+  <si>
+    <t>9725a2a6-d68a-4afc-a9db-f40db2ba10c0</t>
+  </si>
+  <si>
+    <t>5761439f-2c06-41c9-9e8d-a6b8910d4f9a</t>
+  </si>
+  <si>
+    <t>1babf30b-25f0-4f3a-b41d-c805312f7707</t>
+  </si>
+  <si>
+    <t>9e1557b3-93d7-4e00-a162-8be51766f0d9</t>
+  </si>
+  <si>
+    <t>a645b06b-22a5-4630-a39b-2abc3dd6d5fd</t>
+  </si>
+  <si>
+    <t>84809128-dc1d-49a1-b91e-7fc1d14a49dc</t>
+  </si>
+  <si>
+    <t>4e225f04-8c5d-46fb-a53b-ebc15b516bd4</t>
+  </si>
+  <si>
+    <t>07f20255-8ff5-4647-b75e-529e03bf2326</t>
+  </si>
+  <si>
+    <t>7f26c5ff-5d62-4559-ab43-ce3dd544622b</t>
+  </si>
+  <si>
+    <t>de3ab71d-50dc-4c22-8b05-fe9be16c16fa</t>
+  </si>
+  <si>
+    <t>f4a93632-dff5-43cb-99cc-d8a856e8b6a7</t>
+  </si>
+  <si>
+    <t>Create_Dt</t>
   </si>
 </sst>
 </file>
@@ -706,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -715,6 +977,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -999,13 +1264,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,13 +1279,14 @@
     <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1034,25 +1300,28 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,30 +1335,34 @@
         <f t="shared" ref="D2:D24" si="0">"https://app.powerbi.com/reportEmbed?reportId="&amp;C2</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
+      <c r="E2" s="4" t="str">
+        <f ca="1">TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")</f>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J2">
-        <v>22</v>
-      </c>
-      <c r="O2" t="str">
-        <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="P2" t="str">
+        <f ca="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;K2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', '"&amp;J2&amp;"');"</f>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration', 'x', '9c58c787-9f37-4121-8241-86869083c151', 'https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e3f08f23-1742-4436-bf67-456829fc6ce2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,30 +1376,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E64" ca="1" si="1">TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")</f>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J3">
-        <v>22</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O43" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;J3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"');"</f>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P43" ca="1" si="2">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;K3&amp;", "&amp;IF(ISBLANK(A3),"''","'"&amp;A3&amp;"'")&amp;","&amp;"'"&amp;B3&amp;"', "&amp;"'x', "&amp;"'"&amp;C3&amp;"', "&amp;"'"&amp;D3&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"', '"&amp;J3&amp;"');"</f>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Active_Inactive Drivers', 'x', '525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'https://app.powerbi.com/reportEmbed?reportId=525c4fe4-6c31-47ee-ae7b-7cbcbcc1d397', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '28462b9b-4b9b-410c-8be1-7a3b51dd10df', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1140,30 +1417,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
+      <c r="E4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J4">
-        <v>22</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4">
+        <v>22</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrier_dashboard_migration', 'x', 'a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'https://app.powerbi.com/reportEmbed?reportId=a3fc965e-f96f-4e7f-a339-8d4f52c2e45f', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'f5abf6c8-9696-46c1-9e3d-74f6b4d90e7e', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1177,30 +1458,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
+      <c r="E5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J5">
-        <v>22</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5">
+        <v>22</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncds_migration', 'x', '1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'https://app.powerbi.com/reportEmbed?reportId=1b6bf2ad-ef04-431b-a4e3-baa6b8c0e374', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '008beeb1-a1f0-48c1-b519-e73f9e67abcf', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1214,30 +1499,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
+      <c r="E6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J6">
-        <v>22</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cncdsdash_migration', 'x', 'b0d343ff-10af-405e-9226-888fdf934b3a', 'https://app.powerbi.com/reportEmbed?reportId=b0d343ff-10af-405e-9226-888fdf934b3a', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ccdd7e47-e095-4384-8ef7-fb096c50553f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1251,30 +1540,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
+      <c r="E7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J7">
-        <v>22</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7">
+        <v>22</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','cnsdam_migration', 'x', '9525d909-1968-43b2-a8d5-1d9d144bd360', 'https://app.powerbi.com/reportEmbed?reportId=9525d909-1968-43b2-a8d5-1d9d144bd360', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '411b740e-6c8e-43ce-aa22-7e430d893c67', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1288,30 +1581,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
+      <c r="E8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J8">
-        <v>22</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '310d1dfa-1595-46bb-a869-14c5c745cf5f', 'https://app.powerbi.com/reportEmbed?reportId=310d1dfa-1595-46bb-a869-14c5c745cf5f', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0075c12b-cd69-4d32-b42c-29059def5fd7', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1325,30 +1622,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
+      <c r="E9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J9">
-        <v>22</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', 'dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'https://app.powerbi.com/reportEmbed?reportId=dfbc0dad-8bb2-4901-a3ee-d50e154c7441', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8f51b4a3-e5e2-40ef-af21-57ae44f26fd7', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1362,30 +1663,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
+      <c r="E10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J10">
-        <v>22</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', 'db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'https://app.powerbi.com/reportEmbed?reportId=db1f15ed-d8cb-4760-bf2a-7f46e3552be8', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '695e3445-1cf3-45b1-9637-2f568a8d7ab9', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1399,30 +1704,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
+      <c r="E11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J11">
-        <v>22</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '831e7554-6943-47fb-bfbe-224ae9d78afa', 'https://app.powerbi.com/reportEmbed?reportId=831e7554-6943-47fb-bfbe-224ae9d78afa', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5620ef0a-d1b8-46c5-9a0b-ddd614638033', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1436,30 +1745,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
+      <c r="E12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12">
-        <v>22</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12">
+        <v>22</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','nstlin_insifr_migration', 'x', 'ba395d90-3dfd-42c9-a081-536424c8dc94', 'https://app.powerbi.com/reportEmbed?reportId=ba395d90-3dfd-42c9-a081-536424c8dc94', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '342ced8c-f0e8-41c3-a7b4-b652b541a939', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1473,30 +1786,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
+      <c r="E13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J13">
-        <v>22</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13">
+        <v>22</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '2022196d-2011-4a90-9b43-d73e3b97646f', 'https://app.powerbi.com/reportEmbed?reportId=2022196d-2011-4a90-9b43-d73e3b97646f', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '91b3afd2-5852-4353-9df2-53f6560f783d', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1510,30 +1827,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
+      <c r="E14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J14">
-        <v>22</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14">
+        <v>22</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', 'be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'https://app.powerbi.com/reportEmbed?reportId=be03355f-dcc1-4bcc-a402-e70f4a4e0be4', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b634203a-c602-49d1-ae80-6e33d4c0489f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1544,30 +1865,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
+      <c r="E15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J15">
-        <v>22</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15">
+        <v>22</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', '7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'https://app.powerbi.com/reportEmbed?reportId=7ce9d57c-5fcc-4bb8-97a4-0fd351f75c15', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0ea82624-078f-438c-ac27-ee6ec63e3fee', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1581,30 +1906,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
+      <c r="E16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J16">
-        <v>22</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16">
+        <v>22</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '5e23d457-895f-44ff-89f3-cc9885703b53', 'https://app.powerbi.com/reportEmbed?reportId=5e23d457-895f-44ff-89f3-cc9885703b53', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '5d0b19da-6ebb-4860-92ef-d6f7d3e27fe2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1615,30 +1944,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
+      <c r="E17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J17">
-        <v>22</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17">
+        <v>22</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'https://app.powerbi.com/reportEmbed?reportId=424f8d91-411a-4cf6-8e7b-fdd2738bf477', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b4315219-3c1e-4723-b65e-0a592a8564d6', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>110</v>
       </c>
@@ -1649,30 +1982,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
+      <c r="E18" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J18">
-        <v>22</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18">
+        <v>22</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '3f9cc8ac-422b-4573-adb9-81526efc6616', 'https://app.powerbi.com/reportEmbed?reportId=3f9cc8ac-422b-4573-adb9-81526efc6616', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '9f410b49-fc40-475b-8e84-0f68dda4dcb2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1686,30 +2023,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
+      <c r="E19" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J19">
-        <v>22</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K19">
+        <v>22</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1723,30 +2064,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
+      <c r="E20" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J20">
-        <v>22</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K20">
+        <v>22</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 1 (BETA)', 'x', 'ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'https://app.powerbi.com/reportEmbed?reportId=ba7992bf-4fa6-411d-bd70-ea5fae88a9cf', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'b0bf8ebf-ed3f-4b98-a919-86d88852ac44', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -1760,30 +2105,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
+      <c r="E21" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J21">
-        <v>22</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21">
+        <v>22</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Shipper_CD','Performance Dashboard 2 (BETA)', 'x', 'cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'https://app.powerbi.com/reportEmbed?reportId=cbf54bdd-f0f0-41d4-896c-6e4567d132f4', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ae389c3c-f023-4475-9078-190baea7b286', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1797,30 +2146,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
+      <c r="E22" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J22">
-        <v>22</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22">
+        <v>22</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Performance Dashboard 3 (BETA)', 'x', '6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'https://app.powerbi.com/reportEmbed?reportId=6357b72a-1d58-489f-b2f4-ca0a1e4eded1', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '39c073d1-2adf-466f-b825-301e37333a6c', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
@@ -1831,30 +2184,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
+      <c r="E23" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J23">
-        <v>22</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard', 'x', '4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'https://app.powerbi.com/reportEmbed?reportId=4be50dc9-2a33-4b2f-b403-859f5f45f8aa', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ca4bf78f-4e79-45b5-8d1f-07681f49d3a9', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -1865,30 +2222,34 @@
         <f t="shared" si="0"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
+      <c r="E24" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J24">
-        <v>22</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24">
+        <v>22</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Liquidity Portal Dashboard (prod)', 'x', 'eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'https://app.powerbi.com/reportEmbed?reportId=eab8a5a1-ce2c-4b66-ac59-383b008703b6', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4f65eb7a-fccc-4696-a500-7f65e9aadbd1', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -1899,33 +2260,37 @@
         <v>61</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D63" si="2">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
+        <f t="shared" ref="D25:D64" si="3">"https://app.powerbi.com/reportEmbed?reportId="&amp;C25</f>
         <v>https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
+      <c r="E25" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J25">
-        <v>22</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25">
+        <v>22</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Partner_Name, Carrier_CD','carrierinternalS', 'x', '5a150da4-ece0-4d83-960b-7141d2967f45', 'https://app.powerbi.com/reportEmbed?reportId=5a150da4-ece0-4d83-960b-7141d2967f45', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ca79efc-2dc9-4347-9c8e-1b16e63b64af', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1936,33 +2301,37 @@
         <v>85</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
+      <c r="E26" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J26">
-        <v>22</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26">
+        <v>22</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', '8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'https://app.powerbi.com/reportEmbed?reportId=8b97e9d9-0d16-43eb-bf3f-732a8bbdd87c', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '112ce089-9f94-4c24-bad4-6a01a6835da8', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>88</v>
       </c>
@@ -1970,33 +2339,37 @@
         <v>89</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
+      <c r="E27" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J27">
-        <v>22</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27">
+        <v>22</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Internal_metrics', 'x', 'f278f41c-b424-4c53-b613-82b35b2f72aa', 'https://app.powerbi.com/reportEmbed?reportId=f278f41c-b424-4c53-b613-82b35b2f72aa', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'e177161f-72ce-407f-b22d-2a7993ec20a2', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
@@ -2004,33 +2377,37 @@
         <v>92</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
+      <c r="E28" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J28">
-        <v>22</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28">
+        <v>22</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '3e90f50a-feec-47b3-92bf-80ac1b19411c', 'https://app.powerbi.com/reportEmbed?reportId=3e90f50a-feec-47b3-92bf-80ac1b19411c', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '13e3241e-5afb-4685-bcea-d7ba44043450', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -2041,33 +2418,37 @@
         <v>95</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
+      <c r="E29" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J29">
-        <v>22</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29">
+        <v>22</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'parent_partner_cd, carrier','Liquidity Portal Dashboard (uat)', 'x', '0d5030e2-6952-4d7c-941d-d068e386020f', 'https://app.powerbi.com/reportEmbed?reportId=0d5030e2-6952-4d7c-941d-d068e386020f', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '877b91bf-92ad-4495-a2ca-5c92c5bcdc48', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>97</v>
       </c>
@@ -2075,33 +2456,37 @@
         <v>98</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
+      <c r="E30" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J30">
-        <v>22</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30">
+        <v>22</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_IDTBSA', 'x', '5fe360c3-963f-4065-b04f-426232f84df0', 'https://app.powerbi.com/reportEmbed?reportId=5fe360c3-963f-4065-b04f-426232f84df0', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c62678e5-8429-4dab-b550-bdc9199b3c8f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>101</v>
       </c>
@@ -2109,33 +2494,37 @@
         <v>100</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
+      <c r="E31" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J31">
-        <v>22</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31">
+        <v>22</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'f43443b2-2066-4296-9b8a-f93b1a3557cb', 'https://app.powerbi.com/reportEmbed?reportId=f43443b2-2066-4296-9b8a-f93b1a3557cb', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '385634ae-b3fb-4fd7-afb1-8d366e3af427', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>103</v>
       </c>
@@ -2143,33 +2532,37 @@
         <v>104</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
+      <c r="E32" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J32">
-        <v>22</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K32">
+        <v>22</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHT5AR', 'x', '173cff38-92b6-4be3-94b1-e7658e4db419', 'https://app.powerbi.com/reportEmbed?reportId=173cff38-92b6-4be3-94b1-e7658e4db419', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '4bbcc070-1d57-4d0b-85c1-e0a64068c92c', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2180,33 +2573,37 @@
         <v>108</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
+      <c r="E33" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J33">
-        <v>22</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K33">
+        <v>22</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','ALL_Migration_v2', 'x', '1f7a9789-54e8-47e6-8048-a93a8b708a99', 'https://app.powerbi.com/reportEmbed?reportId=1f7a9789-54e8-47e6-8048-a93a8b708a99', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '6e22b4f9-d115-47a1-8b00-1aea8fa0c087', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>113</v>
       </c>
@@ -2214,33 +2611,37 @@
         <v>114</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
+      <c r="E34" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J34">
-        <v>22</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K34">
+        <v>22</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'https://app.powerbi.com/reportEmbed?reportId=4e84d57e-4abc-4529-9fb7-34c30f6bacaf', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '2ac0c4e8-7396-49a3-b6d4-cf2cd978728a', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>117</v>
       </c>
@@ -2248,33 +2649,37 @@
         <v>116</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
+      <c r="E35" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35">
-        <v>22</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K35">
+        <v>22</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'https://app.powerbi.com/reportEmbed?reportId=83e8433f-4cf6-4cb9-8383-bd0e1376bbaf', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '93bac5c2-3f18-4580-9527-6a8d00ae6a80', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>119</v>
       </c>
@@ -2282,33 +2687,37 @@
         <v>120</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
+      <c r="E36" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J36">
-        <v>22</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K36">
+        <v>22</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', 'a29ed913-3870-4025-b900-a9fb9141d8a0', 'https://app.powerbi.com/reportEmbed?reportId=a29ed913-3870-4025-b900-a9fb9141d8a0', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '1ba1b6ca-549e-4b66-bb01-b01cf944c965', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>123</v>
       </c>
@@ -2316,33 +2725,37 @@
         <v>122</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
+      <c r="E37" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J37">
-        <v>22</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37">
+        <v>22</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_SATDUK', 'x', 'f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'https://app.powerbi.com/reportEmbed?reportId=f075c631-8f3b-4042-aff0-dd06a32dcdf7', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'ef79c700-f771-4db6-bd79-4539f4237e7f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>125</v>
       </c>
@@ -2350,33 +2763,37 @@
         <v>126</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
+      <c r="E38" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J38">
-        <v>22</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38">
+        <v>22</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Driver_Status_PHTTHL', 'x', '1488c619-d901-4a61-b422-b0fbffe71263', 'https://app.powerbi.com/reportEmbed?reportId=1488c619-d901-4a61-b422-b0fbffe71263', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '8179566d-58c0-4427-98cb-1ec0c6d2c58e', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>129</v>
       </c>
@@ -2384,33 +2801,37 @@
         <v>128</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
+      <c r="E39" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J39">
-        <v>22</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K39">
+        <v>22</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'https://app.powerbi.com/reportEmbed?reportId=be956fab-9c97-49c0-a41c-faa7f2cab9fa', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '0840e4dd-8420-427e-a751-341e66c80b41', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>131</v>
       </c>
@@ -2418,33 +2839,37 @@
         <v>132</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
+      <c r="E40" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I40" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J40">
-        <v>22</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K40">
+        <v>22</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','DOT Dashboard', 'x', '007a5e64-3977-47d0-809c-aeb329d3893d', 'https://app.powerbi.com/reportEmbed?reportId=007a5e64-3977-47d0-809c-aeb329d3893d', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '768c5549-c806-45f1-a061-70db6b339515', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>135</v>
       </c>
@@ -2452,33 +2877,37 @@
         <v>134</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
+      <c r="E41" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I41" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J41">
-        <v>22</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K41">
+        <v>22</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '41b3609e-cf42-4a32-aece-3e8638795fc2', 'https://app.powerbi.com/reportEmbed?reportId=41b3609e-cf42-4a32-aece-3e8638795fc2', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '894c0b29-191d-49e0-b988-67bedbd0123f', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
@@ -2486,33 +2915,37 @@
         <v>138</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
+      <c r="E42" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J42">
-        <v>22</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K42">
+        <v>22</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', 'a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'https://app.powerbi.com/reportEmbed?reportId=a3ef91ee-9771-4cc1-8292-49e92b6be20f', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', '00703a6d-0c5e-4d5d-bc18-38f397f2b4ab', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>140</v>
       </c>
@@ -2520,33 +2953,37 @@
         <v>141</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
+      <c r="E43" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J43">
+        <v>15</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K43">
         <v>45</v>
       </c>
-      <c r="O43" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2020-04-06 12:50:49', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', 'd785aaf4-2856-4498-a250-fe5816e22e4e', 'https://app.powerbi.com/reportEmbed?reportId=d785aaf4-2856-4498-a250-fe5816e22e4e', 'x', '2020-04-17 09:20:01', 1, '0be87720-b7e4-4a60-a9cd-ecb134f7e606', '51d16d59-1ecb-4cc7-a406-6d12e5e26c7b', 'c43ccb53-1ee1-49bc-adf9-3ee48b469619', 'dexter.olano@opnexplorer.com', 'InsIght$c$2020');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -2557,26 +2994,30 @@
         <v>150</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=f1436e21-ed77-4018-92c3-8eb0e0d12267</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
+      <c r="E44" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I44" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>154</v>
       </c>
@@ -2587,26 +3028,30 @@
         <v>155</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=43a634c3-6762-4df1-9e06-5a7c0c2e2174</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
+      <c r="E45" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I45" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>158</v>
       </c>
@@ -2614,26 +3059,30 @@
         <v>157</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=da1d36b4-005f-4f84-b96d-f154d8abff81</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
+      <c r="E46" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>161</v>
       </c>
@@ -2641,26 +3090,30 @@
         <v>160</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=a85149ba-96da-499d-bbde-ecce94ca6c81</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>12</v>
+      <c r="E47" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>163</v>
       </c>
@@ -2668,26 +3121,30 @@
         <v>164</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=112882f8-8376-4739-9e3e-ac0ed9c5fbb2</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
+      <c r="E48" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>166</v>
       </c>
@@ -2695,26 +3152,30 @@
         <v>167</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=72008df8-4bee-4166-a16e-4e24576fc63a</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>12</v>
+      <c r="E49" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>169</v>
       </c>
@@ -2722,26 +3183,30 @@
         <v>170</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=4e5757c7-152d-435a-a189-63f6848adfdb</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>12</v>
+      <c r="E50" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>172</v>
       </c>
@@ -2749,26 +3214,30 @@
         <v>173</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=2acb949e-c50e-417f-b79e-fd8338ee899e</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
+      <c r="E51" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I51" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>176</v>
       </c>
@@ -2776,26 +3245,30 @@
         <v>175</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=30f8b497-5cb0-436d-aafa-1cca701875fb</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
+      <c r="E52" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I52" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>178</v>
       </c>
@@ -2803,26 +3276,30 @@
         <v>179</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=a1481ff4-9ccf-4f94-b779-998427c970b9</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
+      <c r="E53" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I53" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>182</v>
       </c>
@@ -2830,26 +3307,30 @@
         <v>181</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=3815fa30-a0ff-45d1-8dbd-03dd221eedaf</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>12</v>
+      <c r="E54" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I54" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>184</v>
       </c>
@@ -2857,26 +3338,30 @@
         <v>185</v>
       </c>
       <c r="D55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=9ec9637a-079d-4764-acfc-d99e91e5a7e7</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
+      <c r="E55" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>187</v>
       </c>
@@ -2884,26 +3369,30 @@
         <v>188</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=f6ec0dc0-bd74-463b-b4a0-70b9674ab614</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
+      <c r="E56" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>189</v>
       </c>
@@ -2911,26 +3400,30 @@
         <v>190</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=c38d1aa0-fc7d-41d4-a4c1-b01f28bd4d9b</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
+      <c r="E57" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>194</v>
       </c>
@@ -2938,26 +3431,30 @@
         <v>193</v>
       </c>
       <c r="D58" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=906e17ab-76ef-4f10-85da-78b9e5c9599f</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
+      <c r="E58" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I58" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>196</v>
       </c>
@@ -2965,26 +3462,30 @@
         <v>197</v>
       </c>
       <c r="D59" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=7f8d56f3-2c35-428d-8941-98395a1f151c</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
+      <c r="E59" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>199</v>
       </c>
@@ -2992,26 +3493,30 @@
         <v>200</v>
       </c>
       <c r="D60" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=4101ab95-9483-4f43-87d5-9650143361b6</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
+      <c r="E60" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>202</v>
       </c>
@@ -3019,26 +3524,30 @@
         <v>203</v>
       </c>
       <c r="D61" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=f770b7fe-a2b0-497b-b5a5-49c44fd5f240</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
+      <c r="E61" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I61" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>205</v>
       </c>
@@ -3046,26 +3555,30 @@
         <v>206</v>
       </c>
       <c r="D62" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=bd0b951b-49a8-4ffa-a284-4d559a767278</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>12</v>
+      <c r="E62" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I62" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>208</v>
       </c>
@@ -3073,22 +3586,57 @@
         <v>209</v>
       </c>
       <c r="D63" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://app.powerbi.com/reportEmbed?reportId=c1c42f1e-3c97-4c67-a0ad-229b03e8341e</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>12</v>
+      <c r="E63" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=cc88fa4c-4032-4004-8dc3-203a3a497534</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3156,13 +3704,1568 @@
     <hyperlink ref="D61" r:id="rId60" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D62" r:id="rId61" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
     <hyperlink ref="D63" r:id="rId62" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="D64" r:id="rId63" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId63"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId64"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D40" si="0">"https://app.powerbi.com/reportEmbed?reportId="&amp;C2</f>
+        <v>https://app.powerbi.com/reportEmbed?reportId=3f7af74f-742c-4578-aa62-71db34efc33f</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f ca="1">TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")</f>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P21" ca="1" si="1">"INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES ("&amp;K2&amp;", "&amp;IF(ISBLANK(A2),"''","'"&amp;A2&amp;"'")&amp;","&amp;"'"&amp;B2&amp;"', "&amp;"'x', "&amp;"'"&amp;C2&amp;"', "&amp;"'"&amp;D2&amp;"', 'x', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', 1, '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', '"&amp;J2&amp;"');"</f>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Dedicated', 'x', '3f7af74f-742c-4578-aa62-71db34efc33f', 'https://app.powerbi.com/reportEmbed?reportId=3f7af74f-742c-4578-aa62-71db34efc33f', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '4628a059-5e29-4327-b8bf-663c5455dc78', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=35562145-982f-4f3e-bfb0-842cc9e92d42</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E64" ca="1" si="2">TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")</f>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Engro', 'x', '35562145-982f-4f3e-bfb0-842cc9e92d42', 'https://app.powerbi.com/reportEmbed?reportId=35562145-982f-4f3e-bfb0-842cc9e92d42', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '6ff22ff0-c40f-43f7-86ef-e9204755663f', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=9c7c237a-ed08-422f-a311-c3ba50c2c08d</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4">
+        <v>22</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Hilal', 'x', '9c7c237a-ed08-422f-a311-c3ba50c2c08d', 'https://app.powerbi.com/reportEmbed?reportId=9c7c237a-ed08-422f-a311-c3ba50c2c08d', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', 'cff1a0ba-f1cb-486e-970c-3f79ecb7fcd1', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=22c8af2a-56c1-4812-8448-5b7ceb5bb640</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5">
+        <v>22</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NFL-Final', 'x', '22c8af2a-56c1-4812-8448-5b7ceb5bb640', 'https://app.powerbi.com/reportEmbed?reportId=22c8af2a-56c1-4812-8448-5b7ceb5bb640', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '40e72cf1-ac8a-44c4-a258-3ac3f40ec281', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=36d35df2-e98e-4855-9f84-a58bb4922d26</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','NSTLPK', 'x', '36d35df2-e98e-4855-9f84-a58bb4922d26', 'https://app.powerbi.com/reportEmbed?reportId=36d35df2-e98e-4855-9f84-a58bb4922d26', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '38c7c338-c50a-4928-85e2-0d7750f2ec90', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=49884104-d880-49a2-b475-8beb05f2452e</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7">
+        <v>22</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Pepsi', 'x', '49884104-d880-49a2-b475-8beb05f2452e', 'https://app.powerbi.com/reportEmbed?reportId=49884104-d880-49a2-b475-8beb05f2452e', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '83926f6d-6e69-463f-8dfc-d20ebc27affc', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=bf0eafda-0b8c-4bf0-b718-a7d695700608</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','pkscpldash1', 'x', 'bf0eafda-0b8c-4bf0-b718-a7d695700608', 'https://app.powerbi.com/reportEmbed?reportId=bf0eafda-0b8c-4bf0-b718-a7d695700608', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '04c428c4-7823-44b7-8133-79f5afe29922', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=791062c8-b29f-48cb-917c-78d17a0f9a30</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','PSO', 'x', '791062c8-b29f-48cb-917c-78d17a0f9a30', 'https://app.powerbi.com/reportEmbed?reportId=791062c8-b29f-48cb-917c-78d17a0f9a30', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '4776a242-68ca-46a9-bd33-11b55adea567', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=39b4a7c6-a475-4707-b321-01f08b1acce8</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Tripak', 'x', '39b4a7c6-a475-4707-b321-01f08b1acce8', 'https://app.powerbi.com/reportEmbed?reportId=39b4a7c6-a475-4707-b321-01f08b1acce8', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '1da75508-30ed-4997-8b24-0324c96cb828', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=24cd6cdf-9326-440a-ae8f-543204209cc3</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - cross dock', 'x', '24cd6cdf-9326-440a-ae8f-543204209cc3', 'https://app.powerbi.com/reportEmbed?reportId=24cd6cdf-9326-440a-ae8f-543204209cc3', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', 'ceb23e9b-9370-49f2-9a51-7d7d3f992419', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=f0344a5b-0d21-42b8-a1ab-12d088763004</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K12">
+        <v>22</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, 'Parent_Partner_Name, Shipper_CD','Trip Model', 'x', 'f0344a5b-0d21-42b8-a1ab-12d088763004', 'https://app.powerbi.com/reportEmbed?reportId=f0344a5b-0d21-42b8-a1ab-12d088763004', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '5e6a6876-a3bc-4612-9602-79a440380c9a', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=130949ea-efd3-4fff-8d37-27082a6659d5</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13">
+        <v>22</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - Performance Dashboard', 'x', '130949ea-efd3-4fff-8d37-27082a6659d5', 'https://app.powerbi.com/reportEmbed?reportId=130949ea-efd3-4fff-8d37-27082a6659d5', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '306ff51b-d45e-4e01-b071-63a048047961', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=a110b808-ccee-40b7-b4f6-e63d2532aae2</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14">
+        <v>22</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever - RYK', 'x', 'a110b808-ccee-40b7-b4f6-e63d2532aae2', 'https://app.powerbi.com/reportEmbed?reportId=a110b808-ccee-40b7-b4f6-e63d2532aae2', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '60a9605b-1b3c-4fac-8fa9-03316c9707e8', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=55fc0f50-1e17-4c47-8dc2-3efb7de9a138</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K15">
+        <v>22</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','VehicleInspectionApplicationBI', 'x', '55fc0f50-1e17-4c47-8dc2-3efb7de9a138', 'https://app.powerbi.com/reportEmbed?reportId=55fc0f50-1e17-4c47-8dc2-3efb7de9a138', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '6724603f-ca17-4d5c-9f65-ecca7e4bdcae', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=68e99e16-4a2d-4831-bc59-486f48ccf3ea</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K16">
+        <v>22</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Karachi Secondary', 'x', '68e99e16-4a2d-4831-bc59-486f48ccf3ea', 'https://app.powerbi.com/reportEmbed?reportId=68e99e16-4a2d-4831-bc59-486f48ccf3ea', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '0da02f93-ca2b-4128-8ff2-095ca71d38d8', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=2210458b-3c93-4171-98ef-18be287f1a5f</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K17">
+        <v>22</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Hilal - Hyderabad', 'x', '2210458b-3c93-4171-98ef-18be287f1a5f', 'https://app.powerbi.com/reportEmbed?reportId=2210458b-3c93-4171-98ef-18be287f1a5f', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', 'f2fb6702-73de-41d5-b703-58e51f804eab', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c3f07414-8028-4e30-b600-eceb11e83ce8</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K18">
+        <v>22</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Treet', 'x', 'c3f07414-8028-4e30-b600-eceb11e83ce8', 'https://app.powerbi.com/reportEmbed?reportId=c3f07414-8028-4e30-b600-eceb11e83ce8', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '5e07950f-fbe7-4945-8e28-e7c99f8b5251', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=08a0f537-e741-4221-8e46-fccce4fde275</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K19">
+        <v>22</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Haleeb', 'x', '08a0f537-e741-4221-8e46-fccce4fde275', 'https://app.powerbi.com/reportEmbed?reportId=08a0f537-e741-4221-8e46-fccce4fde275', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '63805db1-1b90-4802-8aa2-621222862f46', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=9620f4f4-e149-4648-9a43-e5f50b61a397</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K20">
+        <v>22</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (22, '','Unilever_Scorecard', 'x', '9620f4f4-e149-4648-9a43-e5f50b61a397', 'https://app.powerbi.com/reportEmbed?reportId=9620f4f4-e149-4648-9a43-e5f50b61a397', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', '43a5e5c4-6c3f-4b60-8961-8702ac5bf5ab', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=95ff80b1-40a4-48c9-a13b-a9e095d9ad60</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K21">
+        <v>45</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO `analytics_db`.`dashboard_details` (`ID`, `Customer_Cd`, `Collection`, `Workspace_ID`, `Report_ID`, `Embed_URL`, `Access_Key`, `Create_Dt`, `Is_Active`, `client_id`, `group_id`, `dataset_id`, `username`, `password`) VALUES (45, '','NSTLPK-HOD PQF', 'x', '95ff80b1-40a4-48c9-a13b-a9e095d9ad60', 'https://app.powerbi.com/reportEmbed?reportId=95ff80b1-40a4-48c9-a13b-a9e095d9ad60', 'x', '2020-04-17 09:20:01', 1, '9c59df76-94dc-4e65-acd0-c2a2d5ddfe0e', '2d62e3d8-aeb4-44c8-bcd1-483d837eddb4', 'ed0cba09-6732-4aea-b623-32eb12b22646', 'bi-admin@pk-openport.com', 'In$ight$C$eF3Sy$100');</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=892abaaf-897e-45e3-898f-5999c8a8beb6</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=41848496-c43f-4a4b-8fd7-f2a57c00d169</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c5e4f69e-4b6f-44b6-8897-bf29f24a6b52</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=230561c0-f40c-4f8e-8e71-8e598528917d</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=bddbffc1-aebd-4df0-8d28-6dbf3e5cfd0d</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=4a153c8c-61ea-47a6-83db-96e351c46d8b</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=fd6b7241-f14b-41be-9337-348dd54e720c</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=d4e5572b-359a-412f-bfb5-6b162c203b6e</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=7b55093b-d9da-4b13-b5ea-afe2470d8b79</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=8c9c4f25-5bf4-4ac2-8532-4e0fd29863cd</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=ecd22e42-95a4-4525-bd32-4079d9cb7aa7</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=c269e001-42d0-41f0-9fd5-ba2795c1858f</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=70567e91-841a-4982-8f21-12037e5f9e41</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=24cf079f-d954-4cad-a20b-e33e2ef09186</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=5761439f-2c06-41c9-9e8d-a6b8910d4f9a</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=9e1557b3-93d7-4e00-a162-8be51766f0d9</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=84809128-dc1d-49a1-b91e-7fc1d14a49dc</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=07f20255-8ff5-4647-b75e-529e03bf2326</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://app.powerbi.com/reportEmbed?reportId=de3ab71d-50dc-4c22-8b05-fe9be16c16fa</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020-04-17 09:20:01</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K39"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="I4" r:id="rId4"/>
+    <hyperlink ref="I5" r:id="rId5"/>
+    <hyperlink ref="I6" r:id="rId6"/>
+    <hyperlink ref="I7" r:id="rId7"/>
+    <hyperlink ref="I8" r:id="rId8"/>
+    <hyperlink ref="I9" r:id="rId9"/>
+    <hyperlink ref="I10" r:id="rId10"/>
+    <hyperlink ref="I11" r:id="rId11"/>
+    <hyperlink ref="I12" r:id="rId12"/>
+    <hyperlink ref="I13" r:id="rId13"/>
+    <hyperlink ref="I14" r:id="rId14"/>
+    <hyperlink ref="I15" r:id="rId15"/>
+    <hyperlink ref="I16" r:id="rId16"/>
+    <hyperlink ref="I17" r:id="rId17"/>
+    <hyperlink ref="I18" r:id="rId18"/>
+    <hyperlink ref="I19" r:id="rId19"/>
+    <hyperlink ref="I20" r:id="rId20"/>
+    <hyperlink ref="I21" r:id="rId21"/>
+    <hyperlink ref="I22" r:id="rId22"/>
+    <hyperlink ref="I23" r:id="rId23"/>
+    <hyperlink ref="I24" r:id="rId24"/>
+    <hyperlink ref="I25" r:id="rId25"/>
+    <hyperlink ref="I26" r:id="rId26"/>
+    <hyperlink ref="I27" r:id="rId27"/>
+    <hyperlink ref="I28" r:id="rId28"/>
+    <hyperlink ref="I29" r:id="rId29"/>
+    <hyperlink ref="I30" r:id="rId30"/>
+    <hyperlink ref="I31" r:id="rId31"/>
+    <hyperlink ref="I32" r:id="rId32"/>
+    <hyperlink ref="I33" r:id="rId33"/>
+    <hyperlink ref="I34" r:id="rId34"/>
+    <hyperlink ref="I35" r:id="rId35"/>
+    <hyperlink ref="I36" r:id="rId36"/>
+    <hyperlink ref="I37" r:id="rId37"/>
+    <hyperlink ref="I38" r:id="rId38"/>
+    <hyperlink ref="I39" r:id="rId39"/>
+    <hyperlink ref="I40" r:id="rId40"/>
+    <hyperlink ref="D3:D40" r:id="rId41" display="https://app.powerbi.com/reportEmbed?reportId=9c58c787-9f37-4121-8241-86869083c151"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B3"/>
@@ -3197,7 +5300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F2"/>
@@ -3242,7 +5345,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('"&amp;C2&amp;"', '"&amp;A2&amp;"', '"&amp;B2&amp;"', 'dextero', '"&amp;TEXT(NOW(),"yyyy-mm-dd hh:mm:ss")&amp;"', '"&amp;D2&amp;"', 'PBI', 'SELF', '5');"</f>
-        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-04-06 12:50:49', '22', 'PBI', 'SELF', '5');</v>
+        <v>INSERT INTO `analytics_db`.`analytics_menu` (`analytics_menu_id`, `partner_cd`, `menu_label_txt`, `create_user`, `create_dt`, `report_id`, `report_type_cd`, `window_type_cd`, `refresh_interval`) VALUES ('58', 'DASH', 'HOD PQF', 'dextero', '2020-04-17 09:20:01', '22', 'PBI', 'SELF', '5');</v>
       </c>
     </row>
   </sheetData>
